--- a/backend/data/plantilla_productos.xlsx
+++ b/backend/data/plantilla_productos.xlsx
@@ -1,149 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjoalfaro/Downloads/Proyecto Antigravity/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973B2F3-D7F7-D54F-82FC-51CF47FB5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>matchScore</t>
-  </si>
-  <si>
-    <t>targetSectors</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Halton - Difusión</t>
-  </si>
-  <si>
-    <t>Ventilación</t>
-  </si>
-  <si>
-    <t>Oficinas, Hospitales</t>
-  </si>
-  <si>
-    <t>Líder en aire exigente</t>
-  </si>
-  <si>
-    <t>Difusión Alta Precisión, Higiene</t>
-  </si>
-  <si>
-    <t>Boreas - Tratamiento de Aire</t>
-  </si>
-  <si>
-    <t>Climatización</t>
-  </si>
-  <si>
-    <t>Hospitales, Oficinas, Industria Alimentaria</t>
-  </si>
-  <si>
-    <t>Alta eficiencia en tratamiento y calidad de aire</t>
-  </si>
-  <si>
-    <t>Filtración avanzada, control humedad, eficiencia energética</t>
-  </si>
-  <si>
-    <t>Airmaster - Ventilación Descentralizada</t>
-  </si>
-  <si>
-    <t>Oficinas, Colegios, Vivienda</t>
-  </si>
-  <si>
-    <t>Instalación rápida y óptima para rehabilitación</t>
-  </si>
-  <si>
-    <t>Recuperación calor, control inteligente, plug&amp;play</t>
-  </si>
-  <si>
-    <t>ECPower - Microcogeneración</t>
-  </si>
-  <si>
-    <t>Energía</t>
-  </si>
-  <si>
-    <t>Hoteles, Industria, Residenciales con alta demanda ACS</t>
-  </si>
-  <si>
-    <t>Ahorro energético y producción simultánea de calor y electricidad</t>
-  </si>
-  <si>
-    <t>Alta eficiencia, reducción CO₂, estabilidad de suministro</t>
-  </si>
-  <si>
-    <t>Ctiki - Bombas de Calor ACS</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
-    <t>Hoteles, Vivienda, Residencias</t>
-  </si>
-  <si>
-    <t>Sustitución de sistemas de gas, alineado con normativa</t>
-  </si>
-  <si>
-    <t>Aerotermia, bajo consumo, rápida amortización</t>
-  </si>
-  <si>
-    <t>Ecodense - Calderas Condensación</t>
-  </si>
-  <si>
-    <t>Calefacción</t>
-  </si>
-  <si>
-    <t>Edificios Públicos, Industria, Hoteles</t>
-  </si>
-  <si>
-    <t>Alta eficiencia en sistemas basados en gas</t>
-  </si>
-  <si>
-    <t>Bajas emisiones NOx, alta potencia, modularidad</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,23 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -512,180 +396,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>matchScore</v>
+      </c>
+      <c r="E1" t="str">
+        <v>targetSectors</v>
+      </c>
+      <c r="F1" t="str">
+        <v>reason</v>
+      </c>
+      <c r="G1" t="str">
+        <v>features</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" t="str">
+        <v>Halton - Difusión</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Ventilación</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
+      <c r="E2" t="str">
+        <v>Oficinas, Hospitales</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Líder en aire exigente</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Difusión Alta Precisión, Higiene</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/plantilla_productos.xlsx
+++ b/backend/data/plantilla_productos.xlsx
@@ -1,42 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjoalfaro/Downloads/Proyecto Antigravity/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973B2F3-D7F7-D54F-82FC-51CF47FB5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>matchScore</t>
+  </si>
+  <si>
+    <t>targetSectors</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Halton - Difusión</t>
+  </si>
+  <si>
+    <t>Ventilación</t>
+  </si>
+  <si>
+    <t>Oficinas, Hospitales</t>
+  </si>
+  <si>
+    <t>Líder en aire exigente</t>
+  </si>
+  <si>
+    <t>Difusión Alta Precisión, Higiene</t>
+  </si>
+  <si>
+    <t>Boreas - Tratamiento de Aire</t>
+  </si>
+  <si>
+    <t>Climatización</t>
+  </si>
+  <si>
+    <t>Hospitales, Oficinas, Industria Alimentaria</t>
+  </si>
+  <si>
+    <t>Alta eficiencia en tratamiento y calidad de aire</t>
+  </si>
+  <si>
+    <t>Filtración avanzada, control humedad, eficiencia energética</t>
+  </si>
+  <si>
+    <t>Airmaster - Ventilación Descentralizada</t>
+  </si>
+  <si>
+    <t>Oficinas, Colegios, Vivienda</t>
+  </si>
+  <si>
+    <t>Instalación rápida y óptima para rehabilitación</t>
+  </si>
+  <si>
+    <t>Recuperación calor, control inteligente, plug&amp;play</t>
+  </si>
+  <si>
+    <t>ECPower - Microcogeneración</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>Hoteles, Industria, Residenciales con alta demanda ACS</t>
+  </si>
+  <si>
+    <t>Ahorro energético y producción simultánea de calor y electricidad</t>
+  </si>
+  <si>
+    <t>Alta eficiencia, reducción CO₂, estabilidad de suministro</t>
+  </si>
+  <si>
+    <t>Ctiki - Bombas de Calor ACS</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>Hoteles, Vivienda, Residencias</t>
+  </si>
+  <si>
+    <t>Sustitución de sistemas de gas, alineado con normativa</t>
+  </si>
+  <si>
+    <t>Aerotermia, bajo consumo, rápida amortización</t>
+  </si>
+  <si>
+    <t>Ecodense - Calderas Condensación</t>
+  </si>
+  <si>
+    <t>Calefacción</t>
+  </si>
+  <si>
+    <t>Edificios Públicos, Industria, Hoteles</t>
+  </si>
+  <si>
+    <t>Alta eficiencia en sistemas basados en gas</t>
+  </si>
+  <si>
+    <t>Bajas emisiones NOx, alta potencia, modularidad</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,14 +171,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,61 +512,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>category</v>
-      </c>
-      <c r="D1" t="str">
-        <v>matchScore</v>
-      </c>
-      <c r="E1" t="str">
-        <v>targetSectors</v>
-      </c>
-      <c r="F1" t="str">
-        <v>reason</v>
-      </c>
-      <c r="G1" t="str">
-        <v>features</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Halton - Difusión</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Ventilación</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
-      <c r="E2" t="str">
-        <v>Oficinas, Hospitales</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Líder en aire exigente</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Difusión Alta Precisión, Higiene</v>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>